--- a/biology/Botanique/Chamaesaracha_sordida/Chamaesaracha_sordida.xlsx
+++ b/biology/Botanique/Chamaesaracha_sordida/Chamaesaracha_sordida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaesaracha sordida est une espèce végétale de la famille des Solanaceae.
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante basse, d'un vert terne, couverte de fins poils glanduleux. Ses tiges rampantes peuvent atteindre 30 cm de longueur mais ne s'élèvent guère au-dessus du sol. Les feuilles de 3 ou 4 cm de long, ne sont généralement pas plates mais ondulées, et leur marge, normalement droite, est parfois légèrement lobée. Elles sont lancéolées et acuminées[1].
-Appareil reproducteur
-La floraison a lieu entre mai et septembre.
-Les fleurs, d'un blanc verdâtre terne, un peu jaunâtre, pousse à l'aisselle des feuilles de la partie apicale de la plante. Chaque fleur mesure environ 3 ou 4 cm de diamètre. La corolle est constituée de 5 pétales soudés formant un pentagone aux angles arrondis. Le centre de chaque pétale comporte une nervure bien visible, souvent soulignée de vert. L'androcée comprend 5 étamines blanches devenant jaunâtres à maturité. À la base des étamines sont présents 5 nectaires en forme de coussins blancs, très velus, et généralement entourés de vert.
-Le fruit est une baie fermement enclose dans le calice.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante basse, d'un vert terne, couverte de fins poils glanduleux. Ses tiges rampantes peuvent atteindre 30 cm de longueur mais ne s'élèvent guère au-dessus du sol. Les feuilles de 3 ou 4 cm de long, ne sont généralement pas plates mais ondulées, et leur marge, normalement droite, est parfois légèrement lobée. Elles sont lancéolées et acuminées.
 </t>
         </is>
       </c>
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mai et septembre.
+Les fleurs, d'un blanc verdâtre terne, un peu jaunâtre, pousse à l'aisselle des feuilles de la partie apicale de la plante. Chaque fleur mesure environ 3 ou 4 cm de diamètre. La corolle est constituée de 5 pétales soudés formant un pentagone aux angles arrondis. Le centre de chaque pétale comporte une nervure bien visible, souvent soulignée de vert. L'androcée comprend 5 étamines blanches devenant jaunâtres à maturité. À la base des étamines sont présents 5 nectaires en forme de coussins blancs, très velus, et généralement entourés de vert.
+Le fruit est une baie fermement enclose dans le calice.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chamaesaracha_sordida</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamaesaracha_sordida</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamaesaracha sordida pousse dans les plaines et déserts du sud-ouest des États-Unis, de l'Arizona au Texas, et du nord du Mexique.
 </t>
